--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H2">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.666529666666666</v>
+        <v>8.839952666666667</v>
       </c>
       <c r="N2">
-        <v>22.999589</v>
+        <v>26.519858</v>
       </c>
       <c r="O2">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="P2">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="Q2">
-        <v>80.2751639365331</v>
+        <v>74.78208346096868</v>
       </c>
       <c r="R2">
-        <v>722.476475428798</v>
+        <v>673.038751148718</v>
       </c>
       <c r="S2">
-        <v>0.04949076170446996</v>
+        <v>0.0397900570045206</v>
       </c>
       <c r="T2">
-        <v>0.04949076170446996</v>
+        <v>0.03979005700452059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H3">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.162231</v>
       </c>
       <c r="O3">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="P3">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="Q3">
-        <v>31.97881473227133</v>
+        <v>25.836138463889</v>
       </c>
       <c r="R3">
-        <v>287.809332590442</v>
+        <v>232.525246175001</v>
       </c>
       <c r="S3">
-        <v>0.01971538670114095</v>
+        <v>0.01374689463942778</v>
       </c>
       <c r="T3">
-        <v>0.01971538670114095</v>
+        <v>0.01374689463942777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H4">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.432632999999999</v>
+        <v>13.31611333333333</v>
       </c>
       <c r="N4">
-        <v>16.297899</v>
+        <v>39.94834</v>
       </c>
       <c r="O4">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="P4">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="Q4">
-        <v>56.88434319613533</v>
+        <v>112.6484197617933</v>
       </c>
       <c r="R4">
-        <v>511.9590887652179</v>
+        <v>1013.83577785614</v>
       </c>
       <c r="S4">
-        <v>0.03506999345477518</v>
+        <v>0.05993798028013463</v>
       </c>
       <c r="T4">
-        <v>0.03506999345477518</v>
+        <v>0.05993798028013462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H5">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.903949</v>
+        <v>30.323401</v>
       </c>
       <c r="N5">
-        <v>83.71184699999999</v>
+        <v>90.970203</v>
       </c>
       <c r="O5">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="P5">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="Q5">
-        <v>292.1783620287727</v>
+        <v>256.522539193357</v>
       </c>
       <c r="R5">
-        <v>2629.605258258954</v>
+        <v>2308.702852740213</v>
       </c>
       <c r="S5">
-        <v>0.1801320480865136</v>
+        <v>0.1364905333611821</v>
       </c>
       <c r="T5">
-        <v>0.1801320480865136</v>
+        <v>0.136490533361182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H6">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.651772333333334</v>
+        <v>11.80377133333333</v>
       </c>
       <c r="N6">
-        <v>25.955317</v>
+        <v>35.411314</v>
       </c>
       <c r="O6">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="P6">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="Q6">
-        <v>90.59150262205489</v>
+        <v>99.85467640929933</v>
       </c>
       <c r="R6">
-        <v>815.323523598494</v>
+        <v>898.6920876836939</v>
       </c>
       <c r="S6">
-        <v>0.05585092884098835</v>
+        <v>0.05313068428439467</v>
       </c>
       <c r="T6">
-        <v>0.05585092884098834</v>
+        <v>0.05313068428439467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J7">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.666529666666666</v>
+        <v>8.839952666666667</v>
       </c>
       <c r="N7">
-        <v>22.999589</v>
+        <v>26.519858</v>
       </c>
       <c r="O7">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="P7">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="Q7">
-        <v>98.46228060152478</v>
+        <v>113.5327113849118</v>
       </c>
       <c r="R7">
-        <v>886.160525413723</v>
+        <v>1021.794402464206</v>
       </c>
       <c r="S7">
-        <v>0.06070337358614892</v>
+        <v>0.06040849423834585</v>
       </c>
       <c r="T7">
-        <v>0.06070337358614891</v>
+        <v>0.06040849423834584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J8">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.162231</v>
       </c>
       <c r="O8">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="P8">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="Q8">
         <v>39.22392524744633</v>
@@ -948,10 +948,10 @@
         <v>353.015327227017</v>
       </c>
       <c r="S8">
-        <v>0.0241820987007896</v>
+        <v>0.02087026931192067</v>
       </c>
       <c r="T8">
-        <v>0.0241820987007896</v>
+        <v>0.02087026931192066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J9">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.432632999999999</v>
+        <v>13.31611333333333</v>
       </c>
       <c r="N9">
-        <v>16.297899</v>
+        <v>39.94834</v>
       </c>
       <c r="O9">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="P9">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="Q9">
-        <v>69.77204264621032</v>
+        <v>171.0206500927089</v>
       </c>
       <c r="R9">
-        <v>627.9483838158928</v>
+        <v>1539.18585083438</v>
       </c>
       <c r="S9">
-        <v>0.04301544047879825</v>
+        <v>0.09099668130656964</v>
       </c>
       <c r="T9">
-        <v>0.04301544047879823</v>
+        <v>0.09099668130656963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J10">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.903949</v>
+        <v>30.323401</v>
       </c>
       <c r="N10">
-        <v>83.71184699999999</v>
+        <v>90.970203</v>
       </c>
       <c r="O10">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="P10">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="Q10">
-        <v>358.3742026427477</v>
+        <v>389.4475529177357</v>
       </c>
       <c r="R10">
-        <v>3225.367823784728</v>
+        <v>3505.027976259621</v>
       </c>
       <c r="S10">
-        <v>0.2209427099774496</v>
+        <v>0.2072172853937096</v>
       </c>
       <c r="T10">
-        <v>0.2209427099774496</v>
+        <v>0.2072172853937096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J11">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.651772333333334</v>
+        <v>11.80377133333333</v>
       </c>
       <c r="N11">
-        <v>25.955317</v>
+        <v>35.411314</v>
       </c>
       <c r="O11">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="P11">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="Q11">
-        <v>111.1158858341132</v>
+        <v>151.5974366123109</v>
       </c>
       <c r="R11">
-        <v>1000.042972507019</v>
+        <v>1364.376929510798</v>
       </c>
       <c r="S11">
-        <v>0.06850449824985665</v>
+        <v>0.08066197631002607</v>
       </c>
       <c r="T11">
-        <v>0.06850449824985663</v>
+        <v>0.08066197631002607</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H12">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I12">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J12">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.666529666666666</v>
+        <v>8.839952666666667</v>
       </c>
       <c r="N12">
-        <v>22.999589</v>
+        <v>26.519858</v>
       </c>
       <c r="O12">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="P12">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="Q12">
-        <v>13.95976409618289</v>
+        <v>17.28592926953622</v>
       </c>
       <c r="R12">
-        <v>125.637876865646</v>
+        <v>155.573363425826</v>
       </c>
       <c r="S12">
-        <v>0.008606389877708924</v>
+        <v>0.009197498641100952</v>
       </c>
       <c r="T12">
-        <v>0.008606389877708922</v>
+        <v>0.009197498641100952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H13">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I13">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J13">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.162231</v>
       </c>
       <c r="O13">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="P13">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="Q13">
-        <v>5.561081259092667</v>
+        <v>5.972040914289666</v>
       </c>
       <c r="R13">
-        <v>50.049731331834</v>
+        <v>53.748368228607</v>
       </c>
       <c r="S13">
-        <v>0.003428484401857394</v>
+        <v>0.003177604011754249</v>
       </c>
       <c r="T13">
-        <v>0.003428484401857394</v>
+        <v>0.003177604011754249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H14">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I14">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J14">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.432632999999999</v>
+        <v>13.31611333333333</v>
       </c>
       <c r="N14">
-        <v>16.297899</v>
+        <v>39.94834</v>
       </c>
       <c r="O14">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="P14">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="Q14">
-        <v>9.892125694220667</v>
+        <v>26.03875856633111</v>
       </c>
       <c r="R14">
-        <v>89.02913124798599</v>
+        <v>234.34882709698</v>
       </c>
       <c r="S14">
-        <v>0.006098633892176177</v>
+        <v>0.0138547047598912</v>
       </c>
       <c r="T14">
-        <v>0.006098633892176175</v>
+        <v>0.0138547047598912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H15">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I15">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J15">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.903949</v>
+        <v>30.323401</v>
       </c>
       <c r="N15">
-        <v>83.71184699999999</v>
+        <v>90.970203</v>
       </c>
       <c r="O15">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="P15">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="Q15">
-        <v>50.80950082089533</v>
+        <v>59.29535877203233</v>
       </c>
       <c r="R15">
-        <v>457.285507388058</v>
+        <v>533.6582289482909</v>
       </c>
       <c r="S15">
-        <v>0.0313247681367314</v>
+        <v>0.0315498792819018</v>
       </c>
       <c r="T15">
-        <v>0.0313247681367314</v>
+        <v>0.0315498792819018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H16">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I16">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J16">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.651772333333334</v>
+        <v>11.80377133333333</v>
       </c>
       <c r="N16">
-        <v>25.955317</v>
+        <v>35.411314</v>
       </c>
       <c r="O16">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="P16">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="Q16">
-        <v>15.75376422429311</v>
+        <v>23.08147612047311</v>
       </c>
       <c r="R16">
-        <v>141.783878018638</v>
+        <v>207.733285084258</v>
       </c>
       <c r="S16">
-        <v>0.009712416056718508</v>
+        <v>0.01228119367737938</v>
       </c>
       <c r="T16">
-        <v>0.009712416056718505</v>
+        <v>0.01228119367737939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H17">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.666529666666666</v>
+        <v>8.839952666666667</v>
       </c>
       <c r="N17">
-        <v>22.999589</v>
+        <v>26.519858</v>
       </c>
       <c r="O17">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="P17">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="Q17">
-        <v>26.59080615869733</v>
+        <v>25.89759605188801</v>
       </c>
       <c r="R17">
-        <v>239.317255428276</v>
+        <v>233.078364466992</v>
       </c>
       <c r="S17">
-        <v>0.01639360403138252</v>
+        <v>0.0137795949978113</v>
       </c>
       <c r="T17">
-        <v>0.01639360403138252</v>
+        <v>0.0137795949978113</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H18">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.162231</v>
       </c>
       <c r="O18">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="P18">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="Q18">
-        <v>10.592846180956</v>
+        <v>8.947248411816002</v>
       </c>
       <c r="R18">
-        <v>95.335615628604</v>
+        <v>80.52523570634402</v>
       </c>
       <c r="S18">
-        <v>0.006530637876096738</v>
+        <v>0.004760652657204712</v>
       </c>
       <c r="T18">
-        <v>0.006530637876096738</v>
+        <v>0.004760652657204712</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H19">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.432632999999999</v>
+        <v>13.31611333333333</v>
       </c>
       <c r="N19">
-        <v>16.297899</v>
+        <v>39.94834</v>
       </c>
       <c r="O19">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="P19">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="Q19">
-        <v>18.842696410924</v>
+        <v>39.01099215024001</v>
       </c>
       <c r="R19">
-        <v>169.584267698316</v>
+        <v>351.0989293521601</v>
       </c>
       <c r="S19">
-        <v>0.01161678596732599</v>
+        <v>0.0207569718523706</v>
       </c>
       <c r="T19">
-        <v>0.01161678596732599</v>
+        <v>0.0207569718523706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H20">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.903949</v>
+        <v>30.323401</v>
       </c>
       <c r="N20">
-        <v>83.71184699999999</v>
+        <v>90.970203</v>
       </c>
       <c r="O20">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="P20">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="Q20">
-        <v>96.78283802217199</v>
+        <v>88.83567815680802</v>
       </c>
       <c r="R20">
-        <v>871.0455421995479</v>
+        <v>799.5211034112722</v>
       </c>
       <c r="S20">
-        <v>0.05966797373873407</v>
+        <v>0.04726769480472628</v>
       </c>
       <c r="T20">
-        <v>0.05966797373873407</v>
+        <v>0.04726769480472628</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H21">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.651772333333334</v>
+        <v>11.80377133333333</v>
       </c>
       <c r="N21">
-        <v>25.955317</v>
+        <v>35.411314</v>
       </c>
       <c r="O21">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="P21">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="Q21">
-        <v>30.00804941055867</v>
+        <v>34.580422928304</v>
       </c>
       <c r="R21">
-        <v>270.072444695028</v>
+        <v>311.223806354736</v>
       </c>
       <c r="S21">
-        <v>0.0185003823071365</v>
+        <v>0.01839955422311557</v>
       </c>
       <c r="T21">
-        <v>0.0185003823071365</v>
+        <v>0.01839955422311558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H22">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.666529666666666</v>
+        <v>8.839952666666667</v>
       </c>
       <c r="N22">
-        <v>22.999589</v>
+        <v>26.519858</v>
       </c>
       <c r="O22">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="P22">
-        <v>0.1454502141802163</v>
+        <v>0.1312786621044678</v>
       </c>
       <c r="Q22">
-        <v>16.63560783471977</v>
+        <v>15.22894300362422</v>
       </c>
       <c r="R22">
-        <v>149.720470512478</v>
+        <v>137.060487032618</v>
       </c>
       <c r="S22">
-        <v>0.01025608498050595</v>
+        <v>0.008103017222689102</v>
       </c>
       <c r="T22">
-        <v>0.01025608498050595</v>
+        <v>0.0081030172226891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H23">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.162231</v>
       </c>
       <c r="O23">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="P23">
-        <v>0.0579422728518591</v>
+        <v>0.04535489698218144</v>
       </c>
       <c r="Q23">
-        <v>6.627043718351333</v>
+        <v>5.261381629005666</v>
       </c>
       <c r="R23">
-        <v>59.643393465162</v>
+        <v>47.352434661051</v>
       </c>
       <c r="S23">
-        <v>0.00408566517197442</v>
+        <v>0.002799476361874034</v>
       </c>
       <c r="T23">
-        <v>0.00408566517197442</v>
+        <v>0.002799476361874034</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H24">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.432632999999999</v>
+        <v>13.31611333333333</v>
       </c>
       <c r="N24">
-        <v>16.297899</v>
+        <v>39.94834</v>
       </c>
       <c r="O24">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="P24">
-        <v>0.1030684896255117</v>
+        <v>0.19775236460521</v>
       </c>
       <c r="Q24">
-        <v>11.78827396845533</v>
+        <v>22.94020552257111</v>
       </c>
       <c r="R24">
-        <v>106.094465716098</v>
+        <v>206.46184970314</v>
       </c>
       <c r="S24">
-        <v>0.007267635832436089</v>
+        <v>0.01220602640624395</v>
       </c>
       <c r="T24">
-        <v>0.007267635832436088</v>
+        <v>0.01220602640624395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H25">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.903949</v>
+        <v>30.323401</v>
       </c>
       <c r="N25">
-        <v>83.71184699999999</v>
+        <v>90.970203</v>
       </c>
       <c r="O25">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="P25">
-        <v>0.5293966807655344</v>
+        <v>0.4503209082496537</v>
       </c>
       <c r="Q25">
-        <v>60.54879753773265</v>
+        <v>52.23934594654033</v>
       </c>
       <c r="R25">
-        <v>544.939177839594</v>
+        <v>470.154113518863</v>
       </c>
       <c r="S25">
-        <v>0.03732918082610572</v>
+        <v>0.02779551540813393</v>
       </c>
       <c r="T25">
-        <v>0.03732918082610572</v>
+        <v>0.02779551540813393</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H26">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.651772333333334</v>
+        <v>11.80377133333333</v>
       </c>
       <c r="N26">
-        <v>25.955317</v>
+        <v>35.411314</v>
       </c>
       <c r="O26">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="P26">
-        <v>0.1641423425768786</v>
+        <v>0.175293168058487</v>
       </c>
       <c r="Q26">
-        <v>18.77348655394822</v>
+        <v>20.33483296137711</v>
       </c>
       <c r="R26">
-        <v>168.961378985534</v>
+        <v>183.013496652394</v>
       </c>
       <c r="S26">
-        <v>0.01157411712217861</v>
+        <v>0.01081975956357126</v>
       </c>
       <c r="T26">
-        <v>0.0115741171221786</v>
+        <v>0.01081975956357126</v>
       </c>
     </row>
   </sheetData>
